--- a/sources/Lab5/testing-lab3.xlsx
+++ b/sources/Lab5/testing-lab3.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="EYLQ+p8TOzw3xZzXqVVoB2w/8Yo5SZzqymY8jFCn9QI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ORTnG1H3gPCw5jKfTMLL9pKtY6p6Y+V8HDg0JBqdkP8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t xml:space="preserve">Аннотация </t>
   </si>
@@ -60,7 +60,7 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Работа навигационных кнопок</t>
+    <t>Работа кнопки "productDataGrid"</t>
   </si>
   <si>
     <t>Сохранения изменений DataGrid</t>
@@ -69,27 +69,28 @@
     <t>Фактический результат</t>
   </si>
   <si>
-    <t>Успех всех этапов</t>
+    <t>Правильная работа кнопки
+"productDataGrid"</t>
   </si>
   <si>
-    <t>Успешное сохранение</t>
+    <t>Успешное сохранение
+ введённых данных</t>
   </si>
   <si>
     <t>Описание</t>
   </si>
   <si>
     <t>Проверить корректность и работоспособность
-навигационных кнопок внутри приложения</t>
+кнопки "productDataGrid" внутри приложения</t>
   </si>
   <si>
-    <t>Проверка корректной работы базы данных
-приложения и правильность сохранения данных</t>
+    <t>Проверка корректного сохранения данных</t>
   </si>
   <si>
     <t>Статус</t>
   </si>
   <si>
-    <t>succes</t>
+    <t>success</t>
   </si>
   <si>
     <t>Предусловие</t>
@@ -126,14 +127,11 @@
     <t>Выбрать первый элемент на DataGrid</t>
   </si>
   <si>
-    <t>Запомнить всплывшее окно и закрыть его</t>
+    <t>Закрыть появившееся окно ProductForm</t>
   </si>
   <si>
     <t>Поменять значение его поля Name на вводные
  данные</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку "materialsDataGird"</t>
   </si>
   <si>
     <t>Нажать на кнопку "Save"</t>
@@ -142,13 +140,12 @@
     <t>Закрыть все окна приложения</t>
   </si>
   <si>
-    <t>Необработанная ошибка</t>
+    <t>Необработанная ошибка
+ одинакового Id сущности</t>
   </si>
   <si>
-    <t>Коррекный результат</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку "productsCustom"</t>
+    <t>ComboBox отображает список
+ имён материалов</t>
   </si>
   <si>
     <t>Запустить приложение снова через exe-file</t>
@@ -160,36 +157,27 @@
     <t>Ещё раз нажать на кнопку "ProductGrid"</t>
   </si>
   <si>
-    <t>Нажатие на кнопку "materialsCustom"</t>
-  </si>
-  <si>
     <t>Проверить изменённую ячейку на вводные данные</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку "Link"</t>
   </si>
   <si>
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Все кнопки должны иметь событие обработки 
-нажатия и переносить пользователя на свои 
-конкретные страницы.</t>
+    <t>Корректная работа кнопки  "productDataGrid"</t>
   </si>
   <si>
-    <t>Вводные данные должны сохраниться по нажатию
-кнопки "Save" и при повторном входе в приложение
-данные должны остаться там же и теми же.</t>
-  </si>
-  <si>
-    <t>Выборка работает
- правильно</t>
+    <t>Изменённые данные сохраняются при повторном
+ запуске приложения</t>
   </si>
   <si>
     <t>Постусловие</t>
   </si>
   <si>
-    <t>Закрыть все оставшиеся окна в приложении.</t>
+    <t>Введённые данные вписываются в базу данных</t>
+  </si>
+  <si>
+    <t>Выборка по материалу работает
+ правильно</t>
   </si>
   <si>
     <t>Тест кейс #3</t>
@@ -198,19 +186,18 @@
     <t>Тест кейс #4</t>
   </si>
   <si>
-    <t>Одинаковые Id у элементов</t>
+    <t>Одинаковые Id</t>
   </si>
   <si>
     <t>ComboBox</t>
   </si>
   <si>
     <t>Требуется проверить обработку ошибки наличия
-в одной таблице нескольких сущностей с
- одинаковыми Id</t>
+в одной таблице нескольких экземпляров сущности с
+ одинаковым Id</t>
   </si>
   <si>
-    <t>Проверка корректной работы базы данных
-приложения и правильность сохранения данных</t>
+    <t>Проверка заполнения comboBox-а в приложении</t>
   </si>
   <si>
     <t>Требуется запустить execute-файл и нажать на
@@ -221,7 +208,7 @@
  кнопку "productsCustom"</t>
   </si>
   <si>
-    <t>Steel</t>
+    <t>Id - 2</t>
   </si>
   <si>
     <t>Выбрать первый элемент внутри панели</t>
@@ -231,14 +218,10 @@
 тестовые данные</t>
   </si>
   <si>
-    <t>Внути comboBox-а проверить наличие данных</t>
+    <t>Раскрыть его comboBox</t>
   </si>
   <si>
-    <t>Поменять текущий материал на материал с именем,
- указанным в тестовых данных</t>
-  </si>
-  <si>
-    <t>Повторить все действия предусловия</t>
+    <t>Проверить начилие элементов внутри него</t>
   </si>
   <si>
     <t>Приложение должно предусматривать подобную
@@ -246,9 +229,8 @@
  прибегая к серьёзным сбоям</t>
   </si>
   <si>
-    <t>Изменённый объект сущности безошибочно
-сохраняет изменения в базе данных и отображает
-их при повторном входе</t>
+    <t>ComboBox внутри себя имеет список имен
+материалов</t>
   </si>
   <si>
     <t>Тест кейс #5</t>
@@ -275,12 +257,13 @@
     <t>Нажать на кнопку "Link" у выбранного элмента</t>
   </si>
   <si>
-    <t>Соотести выбранное имя с материалами выданных
+    <t>Соотнести выбранное имя с материалами выданных
  продуктов на окне "productsCustom"</t>
   </si>
   <si>
-    <t>Все отобразившиеся продукты должны иметь материал
- тем же самым именем, что и у изачально выбранного</t>
+    <t>Все отобразившиеся продукты должны иметь
+ материал тем же самым именем, что и у изначально
+ выбранного</t>
   </si>
 </sst>
 </file>
@@ -453,6 +436,20 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -467,11 +464,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
     </border>
@@ -493,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -511,9 +503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -523,17 +512,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -543,6 +526,9 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -557,24 +543,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -583,21 +578,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,10 +825,10 @@
     <col customWidth="1" min="6" max="6" width="48.43"/>
     <col customWidth="1" min="7" max="7" width="8.71"/>
     <col customWidth="1" min="8" max="8" width="22.57"/>
-    <col customWidth="1" min="9" max="9" width="24.57"/>
+    <col customWidth="1" min="9" max="9" width="31.14"/>
     <col customWidth="1" min="10" max="10" width="6.71"/>
     <col customWidth="1" min="11" max="11" width="22.0"/>
-    <col customWidth="1" min="12" max="12" width="25.0"/>
+    <col customWidth="1" min="12" max="12" width="29.0"/>
     <col customWidth="1" min="13" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -925,7 +927,7 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
@@ -957,7 +959,7 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1"/>
@@ -986,10 +988,10 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>45630.0</v>
       </c>
       <c r="D6" s="1"/>
@@ -1074,25 +1076,25 @@
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1110,31 +1112,31 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0.0</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>1.0</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="14">
         <v>0.0</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>1.0</v>
       </c>
       <c r="M10" s="1"/>
@@ -1152,33 +1154,33 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" ht="35.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="1"/>
@@ -1198,31 +1200,31 @@
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="1"/>
@@ -1242,31 +1244,31 @@
     </row>
     <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="1"/>
@@ -1286,24 +1288,24 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1322,22 +1324,22 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1358,25 +1360,25 @@
     </row>
     <row r="16" ht="27.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1392,29 +1394,27 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" ht="21.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>2.0</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="14">
         <v>3.0</v>
       </c>
       <c r="M17" s="1"/>
@@ -1432,30 +1432,28 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
+    <row r="18" ht="31.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22" t="s">
-        <v>35</v>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="21" t="s">
+        <v>38</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="16" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="L18" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1474,27 +1472,25 @@
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="25" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="1"/>
@@ -1514,27 +1510,25 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22" t="s">
-        <v>45</v>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M20" s="1"/>
@@ -1554,20 +1548,18 @@
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="22" t="s">
-        <v>47</v>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1584,22 +1576,28 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1">
+    <row r="22" ht="60.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="22" t="s">
-        <v>35</v>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1618,22 +1616,28 @@
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>48</v>
       </c>
+      <c r="C23" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="14">
         <v>4.0</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1650,30 +1654,30 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="60.75" customHeight="1">
+    <row r="24" ht="29.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="13" t="s">
-        <v>49</v>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1692,28 +1696,20 @@
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1732,28 +1728,20 @@
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1772,13 +1760,17 @@
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1800,13 +1792,22 @@
     </row>
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.0</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="33">
+        <v>3.0</v>
+      </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1827,18 +1828,22 @@
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="10" t="s">
-        <v>55</v>
+      <c r="B29" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="10" t="s">
-        <v>56</v>
+      <c r="E29" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1857,23 +1862,24 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
+    <row r="30" ht="41.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="28" t="s">
-        <v>11</v>
+      <c r="B30" s="29" t="s">
+        <v>19</v>
       </c>
-      <c r="C30" s="32">
-        <v>2.0</v>
+      <c r="C30" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="28" t="s">
-        <v>11</v>
+      <c r="E30" s="29" t="s">
+        <v>19</v>
       </c>
-      <c r="F30" s="32">
-        <v>3.0</v>
+      <c r="F30" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="20"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1892,23 +1898,23 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
+    <row r="31" ht="29.25" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="28" t="s">
-        <v>13</v>
+      <c r="B31" s="29" t="s">
+        <v>24</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="28" t="s">
-        <v>13</v>
+      <c r="E31" s="29" t="s">
+        <v>24</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="33" t="s">
         <v>58</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="20"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1928,23 +1934,23 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="41.25" customHeight="1">
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="28" t="s">
-        <v>19</v>
+      <c r="B32" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="28" t="s">
-        <v>19</v>
+      <c r="E32" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>60</v>
+      <c r="F32" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1964,27 +1970,27 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="29.25" customHeight="1">
+    <row r="33" ht="33.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="28" t="s">
-        <v>24</v>
+      <c r="B33" s="36" t="s">
+        <v>32</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>61</v>
+      <c r="C33" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="28" t="s">
-        <v>24</v>
+      <c r="E33" s="36" t="s">
+        <v>32</v>
       </c>
-      <c r="F33" s="32" t="s">
-        <v>62</v>
+      <c r="F33" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2000,27 +2006,23 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
+    <row r="34" ht="36.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="32">
-        <v>2.0</v>
+      <c r="B34" s="23"/>
+      <c r="C34" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>63</v>
+      <c r="E34" s="23"/>
+      <c r="F34" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2036,23 +2038,19 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="33.75" customHeight="1">
+    <row r="35" ht="36.0" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="33" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="27"/>
       <c r="C35" s="34" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="33" t="s">
-        <v>32</v>
-      </c>
+      <c r="E35" s="27"/>
       <c r="F35" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="31"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2072,16 +2070,20 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="36.75" customHeight="1">
+    <row r="36" ht="45.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="34" t="s">
-        <v>65</v>
+      <c r="B36" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F36" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2104,16 +2106,20 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="36.0" customHeight="1">
+    <row r="37" ht="31.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="35" t="s">
-        <v>38</v>
+      <c r="B37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="34" t="s">
-        <v>67</v>
+      <c r="E37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2136,14 +2142,20 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
+    <row r="38" ht="31.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="34" t="s">
-        <v>38</v>
+      <c r="E38" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2166,15 +2178,13 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="31.5" customHeight="1">
+    <row r="39" ht="56.25" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2196,15 +2206,15 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="1.5" customHeight="1">
+    <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="32" t="s">
-        <v>68</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2226,21 +2236,17 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="45.75" customHeight="1">
+    <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="28" t="s">
-        <v>49</v>
+      <c r="B41" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>69</v>
+      <c r="C41" s="12">
+        <v>4.0</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>70</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2262,21 +2268,17 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="31.5" customHeight="1">
+    <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="28" t="s">
-        <v>53</v>
+      <c r="B42" s="11" t="s">
+        <v>13</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>54</v>
+      <c r="C42" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2298,21 +2300,17 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="31.5" customHeight="1">
+    <row r="43" ht="42.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="28" t="s">
-        <v>27</v>
+      <c r="B43" s="11" t="s">
+        <v>19</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>28</v>
+      <c r="C43" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2334,10 +2332,14 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="56.25" customHeight="1">
+    <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2364,10 +2366,12 @@
     </row>
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="10" t="s">
-        <v>71</v>
+      <c r="B45" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2394,11 +2398,11 @@
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="13" t="s">
-        <v>11</v>
+      <c r="B46" s="19" t="s">
+        <v>32</v>
       </c>
-      <c r="C46" s="14">
-        <v>4.0</v>
+      <c r="C46" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2424,13 +2428,11 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
+    <row r="47" ht="45.0" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>72</v>
+      <c r="B47" s="23"/>
+      <c r="C47" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2456,13 +2458,11 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="42.75" customHeight="1">
+    <row r="48" ht="34.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>73</v>
+      <c r="B48" s="23"/>
+      <c r="C48" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2488,13 +2488,11 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="30.0" customHeight="1">
+    <row r="49" ht="33.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>74</v>
+      <c r="B49" s="27"/>
+      <c r="C49" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2520,13 +2518,13 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
+    <row r="50" ht="60.0" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="13" t="s">
-        <v>29</v>
+      <c r="B50" s="29" t="s">
+        <v>45</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>30</v>
+      <c r="C50" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2552,13 +2550,13 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
+    <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="21" t="s">
-        <v>32</v>
+      <c r="B51" s="11" t="s">
+        <v>48</v>
       </c>
-      <c r="C51" s="38" t="s">
-        <v>75</v>
+      <c r="C51" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2584,11 +2582,13 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="45.0" customHeight="1">
+    <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="38" t="s">
-        <v>76</v>
+      <c r="B52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2614,14 +2614,12 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="34.5" customHeight="1">
+    <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="38" t="s">
-        <v>77</v>
-      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2644,12 +2642,10 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="33.75" customHeight="1">
+    <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2674,14 +2670,10 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="60.0" customHeight="1">
+    <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2706,14 +2698,10 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="30.0" customHeight="1">
+    <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2739,27 +2727,23 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -2771,23 +2755,23 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -2799,23 +2783,23 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -2827,23 +2811,23 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -2855,23 +2839,23 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" ht="19.5" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -3308,8 +3292,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="F77" s="18"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -3336,7 +3319,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3364,7 +3347,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3392,7 +3375,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="31"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3420,7 +3403,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -3448,7 +3431,8 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="20"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -3475,7 +3459,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="20"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -3503,7 +3487,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="20"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3531,7 +3515,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="30"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -3559,7 +3543,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="20"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -29145,168 +29129,25 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" ht="19.5" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
-    <row r="1001" ht="19.5" customHeight="1">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-    </row>
-    <row r="1002" ht="19.5" customHeight="1">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
-      <c r="G1002" s="2"/>
-      <c r="H1002" s="2"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="2"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="2"/>
-      <c r="M1002" s="2"/>
-      <c r="N1002" s="2"/>
-      <c r="O1002" s="2"/>
-      <c r="P1002" s="2"/>
-      <c r="Q1002" s="2"/>
-      <c r="R1002" s="2"/>
-      <c r="S1002" s="2"/>
-      <c r="T1002" s="2"/>
-      <c r="U1002" s="2"/>
-      <c r="V1002" s="2"/>
-      <c r="W1002" s="2"/>
-      <c r="X1002" s="2"/>
-      <c r="Y1002" s="2"/>
-      <c r="Z1002" s="2"/>
-    </row>
-    <row r="1003" ht="19.5" customHeight="1">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="2"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="2"/>
-      <c r="G1003" s="2"/>
-      <c r="H1003" s="2"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="2"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="2"/>
-      <c r="M1003" s="2"/>
-      <c r="N1003" s="2"/>
-      <c r="O1003" s="2"/>
-      <c r="P1003" s="2"/>
-      <c r="Q1003" s="2"/>
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
-      <c r="T1003" s="2"/>
-      <c r="U1003" s="2"/>
-      <c r="V1003" s="2"/>
-      <c r="W1003" s="2"/>
-      <c r="X1003" s="2"/>
-      <c r="Y1003" s="2"/>
-      <c r="Z1003" s="2"/>
-    </row>
-    <row r="1004" ht="19.5" customHeight="1">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="2"/>
-      <c r="F1004" s="2"/>
-      <c r="G1004" s="2"/>
-      <c r="H1004" s="2"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="2"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="2"/>
-      <c r="M1004" s="2"/>
-      <c r="N1004" s="2"/>
-      <c r="O1004" s="2"/>
-      <c r="P1004" s="2"/>
-      <c r="Q1004" s="2"/>
-      <c r="R1004" s="2"/>
-      <c r="S1004" s="2"/>
-      <c r="T1004" s="2"/>
-      <c r="U1004" s="2"/>
-      <c r="V1004" s="2"/>
-      <c r="W1004" s="2"/>
-      <c r="X1004" s="2"/>
-      <c r="Y1004" s="2"/>
-      <c r="Z1004" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="E15:E23"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
